--- a/DE/E2_Despacho_Economico_Capacidad_Gen.xlsx
+++ b/DE/E2_Despacho_Economico_Capacidad_Gen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/pm_deoliveiradejes_uniandes_edu_co/Documents/MASEP-OPE/DE/MSExcel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/pm_deoliveiradejes_uniandes_edu_co/Documents/MASEP-OPE/DE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{3E8FE161-8E47-C040-B8B7-7C18ECA6F38E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C2F438A2-1F83-004D-91E6-F5D47220DEBC}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{3E8FE161-8E47-C040-B8B7-7C18ECA6F38E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{213D14B4-D5A5-B747-8D3E-ED247D705D1B}"/>
   <bookViews>
-    <workbookView xWindow="37440" yWindow="2000" windowWidth="24200" windowHeight="14100" xr2:uid="{4DA1A984-D1F4-6F48-89E4-8555A0E112BF}"/>
+    <workbookView xWindow="36420" yWindow="1580" windowWidth="31060" windowHeight="19860" activeTab="1" xr2:uid="{4DA1A984-D1F4-6F48-89E4-8555A0E112BF}"/>
   </bookViews>
   <sheets>
     <sheet name="database" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
     <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029" calcMode="manual" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="72">
   <si>
     <t>Operación Económica de Sistemas de Potencia</t>
   </si>
@@ -131,15 +131,42 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Symbol"/>
-        <charset val="2"/>
-      </rPr>
-      <t>b</t>
+    <t>=</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>G1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>G2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>C(</t>
     </r>
     <r>
       <rPr>
@@ -150,7 +177,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>G</t>
     </r>
     <r>
       <rPr>
@@ -160,46 +197,27 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> =</t>
-    </r>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>G1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>G2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>C(</t>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>$/h</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>$/MWh</t>
+  </si>
+  <si>
+    <t>Costs:</t>
+  </si>
+  <si>
+    <t>Income:</t>
+  </si>
+  <si>
+    <r>
+      <t>I(</t>
     </r>
     <r>
       <rPr>
@@ -234,44 +252,44 @@
     </r>
   </si>
   <si>
-    <t>$/h</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>$/MWh</t>
-  </si>
-  <si>
-    <t>Costs:</t>
-  </si>
-  <si>
-    <t>Income:</t>
-  </si>
-  <si>
-    <r>
-      <t>I(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+    <t>Revenue:</t>
+  </si>
+  <si>
+    <r>
+      <t>R(P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>G1</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R(P</t>
+    </r>
+    <r>
+      <rPr>
         <vertAlign val="subscript"/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>G</t>
+      <t>G2</t>
     </r>
     <r>
       <rPr>
@@ -285,11 +303,8 @@
     </r>
   </si>
   <si>
-    <t>Revenue:</t>
-  </si>
-  <si>
-    <r>
-      <t>R(P</t>
+    <r>
+      <t>I(P</t>
     </r>
     <r>
       <rPr>
@@ -313,7 +328,7 @@
   </si>
   <si>
     <r>
-      <t>R(P</t>
+      <t>I(P</t>
     </r>
     <r>
       <rPr>
@@ -337,7 +352,7 @@
   </si>
   <si>
     <r>
-      <t>I(P</t>
+      <t>C(P</t>
     </r>
     <r>
       <rPr>
@@ -361,7 +376,7 @@
   </si>
   <si>
     <r>
-      <t>I(P</t>
+      <t>C(P</t>
     </r>
     <r>
       <rPr>
@@ -385,40 +400,42 @@
   </si>
   <si>
     <r>
-      <t>C(P</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
+      <t>$/MWh</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>G1</t>
-    </r>
-    <r>
-      <rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>R(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>C(P</t>
-    </r>
-    <r>
-      <rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <vertAlign val="subscript"/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>G2</t>
+      <t>G</t>
     </r>
     <r>
       <rPr>
@@ -433,66 +450,140 @@
   </si>
   <si>
     <r>
-      <t>$/MWh</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>R(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>G1</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>+P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>G2</t>
+    </r>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.47 Sensitivity Report</t>
+  </si>
+  <si>
+    <t>Variable Cells</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Reduced</t>
+  </si>
+  <si>
+    <t>Gradient</t>
+  </si>
+  <si>
+    <t>Constraints</t>
+  </si>
+  <si>
+    <t>Lagrange</t>
+  </si>
+  <si>
+    <t>Multiplier</t>
+  </si>
+  <si>
+    <t>$G$11</t>
+  </si>
+  <si>
+    <t>PG1 Ejemplo 1: Despacho Económico Básico</t>
+  </si>
+  <si>
+    <t>$G$12</t>
+  </si>
+  <si>
+    <t>$G$13</t>
+  </si>
+  <si>
+    <t>PG1+PG2 Ejemplo 1: Despacho Económico Básico</t>
+  </si>
+  <si>
+    <r>
       <t>P</t>
     </r>
     <r>
       <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Gmin</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Gmax</t>
+    </r>
+  </si>
+  <si>
+    <t>Worksheet: [Despacho_Economico_Capacidad_Generación.xlsx]NLP</t>
+  </si>
+  <si>
+    <t>Report Created: 3/28/21 5:19:52 PM</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <b/>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <charset val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>G1</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -502,7 +593,48 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>+P</t>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>ng=</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Pg1</t>
+  </si>
+  <si>
+    <t>Pg2</t>
+  </si>
+  <si>
+    <t>g2</t>
+  </si>
+  <si>
+    <t>h1</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>m1</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>mx</t>
+  </si>
+  <si>
+    <t>mn</t>
+  </si>
+  <si>
+    <r>
+      <t>IC(P</t>
     </r>
     <r>
       <rPr>
@@ -511,112 +643,31 @@
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>G2</t>
-    </r>
-  </si>
-  <si>
-    <t>Microsoft Excel 16.47 Sensitivity Report</t>
-  </si>
-  <si>
-    <t>Variable Cells</t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Final</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Reduced</t>
-  </si>
-  <si>
-    <t>Gradient</t>
-  </si>
-  <si>
-    <t>Constraints</t>
-  </si>
-  <si>
-    <t>Lagrange</t>
-  </si>
-  <si>
-    <t>Multiplier</t>
-  </si>
-  <si>
-    <t>$G$11</t>
-  </si>
-  <si>
-    <t>PG1 Ejemplo 1: Despacho Económico Básico</t>
-  </si>
-  <si>
-    <t>$G$12</t>
-  </si>
-  <si>
-    <t>$G$13</t>
-  </si>
-  <si>
-    <t>PG1+PG2 Ejemplo 1: Despacho Económico Básico</t>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Gmin</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>P</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>Gmax</t>
-    </r>
-  </si>
-  <si>
-    <t>Worksheet: [Despacho_Economico_Capacidad_Generación.xlsx]NLP</t>
-  </si>
-  <si>
-    <t>Report Created: 3/28/21 5:19:52 PM</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Symbol"/>
-        <charset val="2"/>
-      </rPr>
-      <t>a</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>G1</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>IC(P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>G2</t>
     </r>
     <r>
       <rPr>
@@ -626,81 +677,42 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>ng=</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Pg1</t>
-  </si>
-  <si>
-    <t>Pg2</t>
-  </si>
-  <si>
-    <t>g2</t>
-  </si>
-  <si>
-    <t>h1</t>
-  </si>
-  <si>
-    <t>h2</t>
-  </si>
-  <si>
-    <t>m1</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>mx</t>
-  </si>
-  <si>
-    <t>mn</t>
-  </si>
-  <si>
-    <r>
-      <t>IC(P</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>G1</t>
-    </r>
-    <r>
-      <rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Ejemplo 2: Despacho Económico Básico con restricciones de capacidad de generación</t>
+  </si>
+  <si>
+    <t>SOLUCIÓN OBTENIDA MEDIANTE SOLVER</t>
+  </si>
+  <si>
+    <t>SOLUCIÓN COMPACTA</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <charset val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>IC(P</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>G2</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -710,20 +722,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>Ejemplo 2: Despacho Económico Básico con restricciones de capacidad de generación</t>
-  </si>
-  <si>
-    <t>SOLUCIÓN OBTENIDA MEDIANTE SOLVER</t>
-  </si>
-  <si>
-    <t>SOLUCIÓN COMPACTA</t>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -843,7 +843,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -900,19 +900,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,7 +984,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1070,17 +1058,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1594,7 +1581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6C60A3A-DF61-1B4E-9BFF-C0C71A823190}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -1611,7 +1598,7 @@
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="E3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1651,28 +1638,28 @@
         <v>6</v>
       </c>
       <c r="F11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="B12" s="11"/>
       <c r="C12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>18</v>
-      </c>
       <c r="G12" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1730,7 +1717,7 @@
         <v>600</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="2:4" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -1759,8 +1746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FCFC435-EA30-034D-BA4E-88C076BED87F}">
   <dimension ref="A1:AD33"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1796,7 +1783,7 @@
     </row>
     <row r="3" spans="1:30" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="G3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R3" s="33"/>
     </row>
@@ -1808,7 +1795,7 @@
     </row>
     <row r="6" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="E6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F6" s="2">
         <v>2</v>
@@ -1818,21 +1805,21 @@
         <v>7</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I6" s="2">
         <f>2*F6</f>
         <v>4</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K6" s="2">
         <f>G6+I6</f>
         <v>11</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M6" s="2">
         <f>K6</f>
@@ -1841,15 +1828,20 @@
       <c r="R6" s="33"/>
     </row>
     <row r="7" spans="1:30" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="Q7" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="R7" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="R7" s="33"/>
-      <c r="W7" s="14" t="s">
-        <v>53</v>
+      <c r="T7" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1887,17 +1879,17 @@
       <c r="O8" s="32">
         <v>0</v>
       </c>
-      <c r="Q8" s="41">
+      <c r="Q8" s="38">
         <v>400</v>
       </c>
       <c r="R8" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="T8" s="40">
+        <v>56</v>
+      </c>
+      <c r="T8" s="12">
         <f t="array" ref="T8:T14">MMULT(E8:O14,Q8:Q18)</f>
         <v>-20</v>
       </c>
-      <c r="W8" s="37">
+      <c r="W8" s="41">
         <f>-AA14</f>
         <v>-20</v>
       </c>
@@ -1937,23 +1929,23 @@
       <c r="O9" s="32">
         <v>0</v>
       </c>
-      <c r="Q9" s="41">
+      <c r="Q9" s="38">
         <v>199.99999999999997</v>
       </c>
       <c r="R9" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="T9" s="40">
+        <v>57</v>
+      </c>
+      <c r="T9" s="12">
         <v>-25</v>
       </c>
-      <c r="W9" s="37">
+      <c r="W9" s="41">
         <f>-AA15</f>
         <v>-25</v>
       </c>
     </row>
     <row r="10" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="12">
         <v>1</v>
@@ -1988,80 +1980,80 @@
       <c r="O10" s="32">
         <v>0</v>
       </c>
-      <c r="Q10" s="41">
+      <c r="Q10" s="38">
         <v>45</v>
       </c>
       <c r="R10" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="T10" s="40">
+        <v>12</v>
+      </c>
+      <c r="T10" s="12">
         <v>600</v>
       </c>
-      <c r="W10" s="37">
+      <c r="W10" s="41">
         <f>Z19</f>
         <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:30" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="20">
-        <f>Z14+AA14*S24+(1/2)*AB14*S24^2</f>
+        <f>Z14+AA14*S19+(1/2)*AB14*S19^2</f>
         <v>12100</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="38">
+        <v>16</v>
+      </c>
+      <c r="E11" s="37">
         <v>1</v>
       </c>
-      <c r="F11" s="38">
-        <v>0</v>
-      </c>
-      <c r="G11" s="38">
-        <v>0</v>
-      </c>
-      <c r="H11" s="38">
-        <v>0</v>
-      </c>
-      <c r="I11" s="38">
-        <v>0</v>
-      </c>
-      <c r="J11" s="38">
-        <v>0</v>
-      </c>
-      <c r="K11" s="38">
-        <v>0</v>
-      </c>
-      <c r="L11" s="38">
+      <c r="F11" s="37">
+        <v>0</v>
+      </c>
+      <c r="G11" s="37">
+        <v>0</v>
+      </c>
+      <c r="H11" s="37">
+        <v>0</v>
+      </c>
+      <c r="I11" s="37">
+        <v>0</v>
+      </c>
+      <c r="J11" s="37">
+        <v>0</v>
+      </c>
+      <c r="K11" s="37">
+        <v>0</v>
+      </c>
+      <c r="L11" s="37">
         <v>1</v>
       </c>
-      <c r="M11" s="38">
-        <v>0</v>
-      </c>
-      <c r="N11" s="38">
-        <v>0</v>
-      </c>
-      <c r="O11" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="41">
+      <c r="M11" s="37">
+        <v>0</v>
+      </c>
+      <c r="N11" s="37">
+        <v>0</v>
+      </c>
+      <c r="O11" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="38">
         <v>-5</v>
       </c>
       <c r="R11" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="T11" s="40">
+        <v>63</v>
+      </c>
+      <c r="T11" s="12">
         <v>400</v>
       </c>
-      <c r="W11" s="37">
+      <c r="W11" s="41">
         <f>AD14</f>
         <v>400</v>
       </c>
@@ -2071,64 +2063,64 @@
     </row>
     <row r="12" spans="1:30" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="21">
-        <f>Z15+AA15*S25+(1/2)*AB15*S25^2</f>
+        <f>Z15+AA15*S20+(1/2)*AB15*S20^2</f>
         <v>7199.9999999999982</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="38">
-        <v>0</v>
-      </c>
-      <c r="F12" s="38">
+        <v>16</v>
+      </c>
+      <c r="E12" s="37">
+        <v>0</v>
+      </c>
+      <c r="F12" s="37">
         <v>1</v>
       </c>
-      <c r="G12" s="38">
-        <v>0</v>
-      </c>
-      <c r="H12" s="38">
-        <v>0</v>
-      </c>
-      <c r="I12" s="38">
-        <v>0</v>
-      </c>
-      <c r="J12" s="38">
-        <v>0</v>
-      </c>
-      <c r="K12" s="38">
-        <v>0</v>
-      </c>
-      <c r="L12" s="38">
-        <v>0</v>
-      </c>
-      <c r="M12" s="38">
+      <c r="G12" s="37">
+        <v>0</v>
+      </c>
+      <c r="H12" s="37">
+        <v>0</v>
+      </c>
+      <c r="I12" s="37">
+        <v>0</v>
+      </c>
+      <c r="J12" s="37">
+        <v>0</v>
+      </c>
+      <c r="K12" s="37">
+        <v>0</v>
+      </c>
+      <c r="L12" s="37">
+        <v>0</v>
+      </c>
+      <c r="M12" s="37">
         <v>1</v>
       </c>
-      <c r="N12" s="38">
-        <v>0</v>
-      </c>
-      <c r="O12" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="41">
+      <c r="N12" s="37">
+        <v>0</v>
+      </c>
+      <c r="O12" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="38">
         <v>0</v>
       </c>
       <c r="R12" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="S12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="S12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="T12" s="40">
+      <c r="T12" s="12">
         <v>300</v>
       </c>
-      <c r="W12" s="37">
+      <c r="W12" s="41">
         <f>AD15</f>
         <v>300</v>
       </c>
@@ -2147,67 +2139,67 @@
     </row>
     <row r="13" spans="1:30" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="22">
         <f>SUM(C11:C12)</f>
         <v>19300</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="38">
+        <v>16</v>
+      </c>
+      <c r="E13" s="37">
         <v>1</v>
       </c>
-      <c r="F13" s="38">
-        <v>0</v>
-      </c>
-      <c r="G13" s="38">
-        <v>0</v>
-      </c>
-      <c r="H13" s="38">
-        <v>0</v>
-      </c>
-      <c r="I13" s="38">
-        <v>0</v>
-      </c>
-      <c r="J13" s="38">
-        <v>0</v>
-      </c>
-      <c r="K13" s="38">
-        <v>0</v>
-      </c>
-      <c r="L13" s="38">
-        <v>0</v>
-      </c>
-      <c r="M13" s="38">
-        <v>0</v>
-      </c>
-      <c r="N13" s="38">
+      <c r="F13" s="37">
+        <v>0</v>
+      </c>
+      <c r="G13" s="37">
+        <v>0</v>
+      </c>
+      <c r="H13" s="37">
+        <v>0</v>
+      </c>
+      <c r="I13" s="37">
+        <v>0</v>
+      </c>
+      <c r="J13" s="37">
+        <v>0</v>
+      </c>
+      <c r="K13" s="37">
+        <v>0</v>
+      </c>
+      <c r="L13" s="37">
+        <v>0</v>
+      </c>
+      <c r="M13" s="37">
+        <v>0</v>
+      </c>
+      <c r="N13" s="37">
         <v>-1</v>
       </c>
-      <c r="O13" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="41">
+      <c r="O13" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="38">
         <v>0</v>
       </c>
       <c r="R13" s="35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="T13" s="40">
+        <v>64</v>
+      </c>
+      <c r="T13" s="12">
         <v>0</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="W13" s="37">
+        <v>11</v>
+      </c>
+      <c r="W13" s="41">
         <f>AC14</f>
         <v>0</v>
       </c>
@@ -2234,55 +2226,55 @@
     </row>
     <row r="14" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="22"/>
-      <c r="E14" s="38">
-        <v>0</v>
-      </c>
-      <c r="F14" s="38">
+      <c r="E14" s="37">
+        <v>0</v>
+      </c>
+      <c r="F14" s="37">
         <v>1</v>
       </c>
-      <c r="G14" s="38">
-        <v>0</v>
-      </c>
-      <c r="H14" s="38">
-        <v>0</v>
-      </c>
-      <c r="I14" s="38">
-        <v>0</v>
-      </c>
-      <c r="J14" s="38">
-        <v>0</v>
-      </c>
-      <c r="K14" s="38">
-        <v>0</v>
-      </c>
-      <c r="L14" s="38">
-        <v>0</v>
-      </c>
-      <c r="M14" s="38">
-        <v>0</v>
-      </c>
-      <c r="N14" s="38">
-        <v>0</v>
-      </c>
-      <c r="O14" s="38">
+      <c r="G14" s="37">
+        <v>0</v>
+      </c>
+      <c r="H14" s="37">
+        <v>0</v>
+      </c>
+      <c r="I14" s="37">
+        <v>0</v>
+      </c>
+      <c r="J14" s="37">
+        <v>0</v>
+      </c>
+      <c r="K14" s="37">
+        <v>0</v>
+      </c>
+      <c r="L14" s="37">
+        <v>0</v>
+      </c>
+      <c r="M14" s="37">
+        <v>0</v>
+      </c>
+      <c r="N14" s="37">
+        <v>0</v>
+      </c>
+      <c r="O14" s="37">
         <v>-1</v>
       </c>
-      <c r="Q14" s="41">
+      <c r="Q14" s="38">
         <v>0</v>
       </c>
       <c r="R14" s="35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="T14" s="40">
-        <v>0</v>
-      </c>
-      <c r="W14" s="37">
+        <v>64</v>
+      </c>
+      <c r="T14" s="12">
+        <v>0</v>
+      </c>
+      <c r="W14" s="41">
         <f>AC15</f>
         <v>0</v>
       </c>
@@ -2312,29 +2304,29 @@
     </row>
     <row r="15" spans="1:30" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="20">
-        <f>S27*S24</f>
+        <f>S22*S19</f>
         <v>18000</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q15" s="41">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="38">
         <v>0</v>
       </c>
       <c r="R15" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="T15" s="32">
+        <v>58</v>
+      </c>
+      <c r="T15" s="12">
         <f>(Q8-W11)*Q11</f>
         <v>0</v>
       </c>
-      <c r="W15" s="39">
+      <c r="W15" s="41">
         <v>0</v>
       </c>
       <c r="Y15" s="9">
@@ -2363,63 +2355,63 @@
     </row>
     <row r="16" spans="1:30" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="21">
-        <f>S27*S25</f>
+        <f>S22*S20</f>
         <v>8999.9999999999982</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q16" s="41">
+      <c r="Q16" s="38">
         <v>100</v>
       </c>
       <c r="R16" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="T16" s="32">
+        <v>58</v>
+      </c>
+      <c r="T16" s="12">
         <f>(Q9-W12)*Q12</f>
         <v>0</v>
       </c>
-      <c r="W16" s="39">
+      <c r="W16" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:26" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="22">
         <f>SUM(C15:C16)</f>
         <v>27000</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q17" s="41">
+      <c r="Q17" s="38">
         <v>400</v>
       </c>
       <c r="R17" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="T17" s="32">
+        <v>59</v>
+      </c>
+      <c r="T17" s="12">
         <f>(Q8-W13)*Q13</f>
         <v>0</v>
       </c>
-      <c r="W17" s="39">
+      <c r="W17" s="41">
         <v>0</v>
       </c>
       <c r="Y17" s="2" t="s">
@@ -2428,42 +2420,52 @@
     </row>
     <row r="18" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="22"/>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q18" s="41">
+      <c r="Q18" s="38">
         <v>199.99999999999997</v>
       </c>
       <c r="R18" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="T18" s="32">
+        <v>60</v>
+      </c>
+      <c r="T18" s="12">
         <f>(Q9-W14)*Q14</f>
         <v>0</v>
       </c>
-      <c r="W18" s="39">
+      <c r="W18" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:26" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="20">
         <f>C15-C11</f>
         <v>5900</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="R19" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="S19" s="2">
+        <f>Q8</f>
+        <v>400</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="Y19" s="11" t="s">
         <v>9</v>
@@ -2475,133 +2477,119 @@
     </row>
     <row r="20" spans="1:26" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="21">
         <f>C16-C12</f>
         <v>1800</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="R20" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="S20" s="2">
+        <f>Q9</f>
+        <v>199.99999999999997</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="21" spans="1:26" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="22">
         <f>SUM(C19:C20)</f>
         <v>7700</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S21" s="2">
+        <f>SUM(S19:S20)</f>
+        <v>600</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="R22" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="S22" s="2">
+        <f>Q10</f>
+        <v>45</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="23" spans="1:26" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="20">
-        <f>AA14+AB14*S24</f>
+        <f>AA14+AB14*S19</f>
         <v>40</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="R23" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="S23" s="2">
+        <f>Q11</f>
+        <v>-5</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:26" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" s="21">
-        <f>AA15+AB15*S25</f>
+        <f>AA15+AB15*S20</f>
         <v>45</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R24" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="S24" s="2">
-        <f>Q8</f>
-        <v>400</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="R25" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="S25" s="2">
-        <f>Q9</f>
-        <v>199.99999999999997</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="R26" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S26" s="2">
-        <f>SUM(S24:S25)</f>
-        <v>600</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="R27" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="S27" s="2">
-        <f>Q10</f>
-        <v>45</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="R28" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="S28" s="2">
-        <f>Q11</f>
-        <v>-5</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="R29" s="33"/>
     </row>
@@ -2643,54 +2631,54 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>36</v>
-      </c>
       <c r="D8" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B9" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>44</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>45</v>
       </c>
       <c r="D9" s="24">
         <v>400</v>
@@ -2701,7 +2689,7 @@
     </row>
     <row r="10" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25">
@@ -2713,39 +2701,39 @@
     </row>
     <row r="12" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>36</v>
-      </c>
       <c r="D14" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="25" t="s">
         <v>47</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>48</v>
       </c>
       <c r="D15" s="25">
         <v>600.000001</v>
@@ -2789,7 +2777,7 @@
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="G3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2797,38 +2785,38 @@
     <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:15" s="2" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="43" t="s">
-        <v>70</v>
+      <c r="A8" s="40" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="20">
         <f>K14+L14*G11+(1/2)*M14*G11^2</f>
         <v>12100</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" s="29">
         <v>400</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>7</v>
@@ -2836,29 +2824,29 @@
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="21">
         <f>K15+L15*G12+(1/2)*M15*G12^2</f>
         <v>7200</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" s="17">
         <v>200</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -2875,27 +2863,27 @@
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="26">
         <f>SUM(C11:C12)</f>
         <v>19300</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" s="6">
         <f>G11+G12</f>
         <v>600</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>3</v>
@@ -2920,18 +2908,18 @@
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="22"/>
       <c r="E14" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="6">
         <f>'Sensitivity Report 1'!E15</f>
         <v>45.000011444091797</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J14" s="8">
         <v>1</v>
@@ -2959,27 +2947,27 @@
     </row>
     <row r="15" spans="1:15" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="20">
         <f>G14*G11</f>
         <v>18000.004577636719</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G15" s="6">
         <f>'Sensitivity Report 1'!E9</f>
         <v>-5.0000228881835938</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J15" s="9">
         <v>2</v>
@@ -3007,32 +2995,32 @@
     </row>
     <row r="16" spans="1:15" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="21">
         <f>G14*G12</f>
         <v>9000.0022888183594</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="22">
         <f>SUM(C15:C16)</f>
         <v>27000.006866455078</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>8</v>
@@ -3040,23 +3028,23 @@
     </row>
     <row r="18" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="22"/>
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="20">
         <f>C15-C11</f>
         <v>5900.0045776367188</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J19" s="11" t="s">
         <v>9</v>
@@ -3068,32 +3056,32 @@
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="21">
         <f>C16-C12</f>
         <v>1800.0022888183594</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="22">
         <f>SUM(C19:C20)</f>
         <v>7700.0068664550781</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
